--- a/Wakanda_intf_selectors.xlsx
+++ b/Wakanda_intf_selectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AACBDE-B740-4B60-92C5-AB4F9D030059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3A5B4F-66D3-4037-AC74-FDD37A134C37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="3210" windowWidth="19200" windowHeight="10800" tabRatio="803" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3400" yWindow="7970" windowWidth="19200" windowHeight="10800" tabRatio="803" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wakanda-spine101" sheetId="1" r:id="rId1"/>
@@ -661,13 +661,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="5" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,6 +672,13 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="6">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1033,40 +1033,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1915,15 +1915,15 @@
       <c r="F32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="8" t="s">
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5" t="s">
         <v>134</v>
       </c>
       <c r="L32" s="1"/>
@@ -1949,15 +1949,15 @@
       <c r="F33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="10" t="s">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="7" t="s">
         <v>135</v>
       </c>
       <c r="L33" s="2"/>
@@ -2115,40 +2115,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2997,15 +2997,15 @@
       <c r="F32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="8" t="s">
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5" t="s">
         <v>136</v>
       </c>
       <c r="L32" s="1"/>
@@ -3031,15 +3031,15 @@
       <c r="F33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="10" t="s">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L33" s="2"/>
@@ -3197,40 +3197,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -4858,7 +4858,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52:L55"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4875,40 +4875,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">

--- a/Wakanda_intf_selectors.xlsx
+++ b/Wakanda_intf_selectors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tyscott\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3A5B4F-66D3-4037-AC74-FDD37A134C37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9AE899-0A65-4365-A671-2148060D5314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="7970" windowWidth="19200" windowHeight="10800" tabRatio="803" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wakanda-spine101" sheetId="1" r:id="rId1"/>
@@ -475,9 +475,6 @@
     <t>143c-core02-E1/29</t>
   </si>
   <si>
-    <t>accessPort</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
@@ -500,6 +497,9 @@
   </si>
   <si>
     <t>wakanda-ucs-b-E1/40</t>
+  </si>
+  <si>
+    <t>trunkPort</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,6 +679,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3179,8 +3185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52:L55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4719,8 +4725,8 @@
       <c r="F54" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>145</v>
+      <c r="G54" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>139</v>
@@ -4729,10 +4735,10 @@
         <v>140</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>143</v>
@@ -4759,8 +4765,8 @@
       <c r="F55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>145</v>
+      <c r="G55" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>139</v>
@@ -4769,10 +4775,10 @@
         <v>140</v>
       </c>
       <c r="J55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>143</v>
@@ -4842,10 +4848,10 @@
     <mergeCell ref="B2:N2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53 A54 A55 A56 A57" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:A57" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"intf_selector"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4:H57" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"access,breakout,port-channel,vpc"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4857,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6330,7 +6336,7 @@
         <v>141</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>143</v>
@@ -6370,7 +6376,7 @@
         <v>141</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>143</v>
@@ -6397,8 +6403,8 @@
       <c r="F54" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>145</v>
+      <c r="G54" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>139</v>
@@ -6407,10 +6413,10 @@
         <v>140</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>143</v>
@@ -6437,8 +6443,8 @@
       <c r="F55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>145</v>
+      <c r="G55" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>139</v>
@@ -6447,10 +6453,10 @@
         <v>140</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>143</v>

--- a/Wakanda_intf_selectors.xlsx
+++ b/Wakanda_intf_selectors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tyscott\iac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tyscott\scotttyso\iac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9AE899-0A65-4365-A671-2148060D5314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19361DEC-9D64-4B0E-8483-F8BC9684B9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="115080" yWindow="15990" windowWidth="29040" windowHeight="15360" tabRatio="803" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wakanda-spine101" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="155">
   <si>
     <t>wakanda-spine101 Interface Selectors</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>trunkPort</t>
+  </si>
+  <si>
+    <t>1-4094</t>
   </si>
 </sst>
 </file>
@@ -673,18 +676,18 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1039,40 +1042,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2121,40 +2124,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -3185,8 +3188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54:G55"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3203,40 +3206,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -4664,7 +4667,9 @@
         <v>143</v>
       </c>
       <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="N52" s="9" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
@@ -4725,7 +4730,7 @@
       <c r="F54" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="9" t="s">
         <v>153</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -4765,7 +4770,7 @@
       <c r="F55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="10" t="s">
         <v>153</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -4881,40 +4886,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -6403,7 +6408,7 @@
       <c r="F54" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="9" t="s">
         <v>153</v>
       </c>
       <c r="H54" s="1" t="s">
@@ -6443,7 +6448,7 @@
       <c r="F55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="10" t="s">
         <v>153</v>
       </c>
       <c r="H55" s="2" t="s">
